--- a/data/pca/factorExposure/factorExposure_2013-06-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-06-17.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002403085319721603</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001739731990986198</v>
+      </c>
+      <c r="C2">
+        <v>0.0314159801330342</v>
+      </c>
+      <c r="D2">
+        <v>0.003753442202005291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.002061786722938002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006163183393885605</v>
+      </c>
+      <c r="C4">
+        <v>0.08381726060399448</v>
+      </c>
+      <c r="D4">
+        <v>0.07978839811689972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0002600847056648991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01356866922347571</v>
+      </c>
+      <c r="C6">
+        <v>0.1065558193068168</v>
+      </c>
+      <c r="D6">
+        <v>0.0339004956817724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001386048616855077</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004900135495401653</v>
+      </c>
+      <c r="C7">
+        <v>0.05240132314026082</v>
+      </c>
+      <c r="D7">
+        <v>0.03861684775260169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.002559665578442629</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005781285956170978</v>
+      </c>
+      <c r="C8">
+        <v>0.03643997709958328</v>
+      </c>
+      <c r="D8">
+        <v>0.04255331773527087</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.005893861817544978</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004159012474044097</v>
+      </c>
+      <c r="C9">
+        <v>0.06853688849284702</v>
+      </c>
+      <c r="D9">
+        <v>0.06976532185127934</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.005153341236601556</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005869403621665336</v>
+      </c>
+      <c r="C10">
+        <v>0.07829718039505092</v>
+      </c>
+      <c r="D10">
+        <v>-0.211318426971564</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.005641042530698595</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005101856780662906</v>
+      </c>
+      <c r="C11">
+        <v>0.07909713193978374</v>
+      </c>
+      <c r="D11">
+        <v>0.0656611862566147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.001166922194924829</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003758396979911797</v>
+      </c>
+      <c r="C12">
+        <v>0.0632004367932844</v>
+      </c>
+      <c r="D12">
+        <v>0.04752799996341774</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003708538897403054</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008879041867927215</v>
+      </c>
+      <c r="C13">
+        <v>0.0706560137158076</v>
+      </c>
+      <c r="D13">
+        <v>0.0708263639988167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.004753784660261754</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001848643528075464</v>
+      </c>
+      <c r="C14">
+        <v>0.04755379755582507</v>
+      </c>
+      <c r="D14">
+        <v>0.0145528369587749</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.003198890656038561</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005873312484938878</v>
+      </c>
+      <c r="C15">
+        <v>0.0374842529370595</v>
+      </c>
+      <c r="D15">
+        <v>0.04101125616099602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.003362600147156392</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004954474096688061</v>
+      </c>
+      <c r="C16">
+        <v>0.06481725933989738</v>
+      </c>
+      <c r="D16">
+        <v>0.05048134096943344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.001535809311253596</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009268095257225824</v>
+      </c>
+      <c r="C20">
+        <v>0.06522377327935899</v>
+      </c>
+      <c r="D20">
+        <v>0.05774338691720335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.003747696969247557</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009673474683504808</v>
+      </c>
+      <c r="C21">
+        <v>0.02528313695378136</v>
+      </c>
+      <c r="D21">
+        <v>0.03775186071556599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01668193695298672</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006986711166863674</v>
+      </c>
+      <c r="C22">
+        <v>0.08741418364562185</v>
+      </c>
+      <c r="D22">
+        <v>0.1078338711395063</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01688667120225914</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006751149099230521</v>
+      </c>
+      <c r="C23">
+        <v>0.08998531382954213</v>
+      </c>
+      <c r="D23">
+        <v>0.1045457968352912</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.004479369245372881</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.00477199185854552</v>
+      </c>
+      <c r="C24">
+        <v>0.07258623087995293</v>
+      </c>
+      <c r="D24">
+        <v>0.06018204767383288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.005577971933287879</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002943025676616711</v>
+      </c>
+      <c r="C25">
+        <v>0.07675046876145368</v>
+      </c>
+      <c r="D25">
+        <v>0.06491348926323284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.00676106600799516</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003632527738552657</v>
+      </c>
+      <c r="C26">
+        <v>0.0415553812492061</v>
+      </c>
+      <c r="D26">
+        <v>0.0281514581887034</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005680150128736346</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0001642805488439138</v>
+      </c>
+      <c r="C28">
+        <v>0.1280832379995395</v>
+      </c>
+      <c r="D28">
+        <v>-0.3071511848846752</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001937489436432227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003373054566792514</v>
+      </c>
+      <c r="C29">
+        <v>0.04928068405157127</v>
+      </c>
+      <c r="D29">
+        <v>0.01932461140086982</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.006894818245265706</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009406321597484685</v>
+      </c>
+      <c r="C30">
+        <v>0.1360968590970441</v>
+      </c>
+      <c r="D30">
+        <v>0.1081606420097065</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0002184885138905194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006217179088082353</v>
+      </c>
+      <c r="C31">
+        <v>0.04628980903066422</v>
+      </c>
+      <c r="D31">
+        <v>0.03568414121237188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001153496817764477</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004035783880007522</v>
+      </c>
+      <c r="C32">
+        <v>0.04221290340728639</v>
+      </c>
+      <c r="D32">
+        <v>0.01475338454514655</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003605293719870332</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007875206579481422</v>
+      </c>
+      <c r="C33">
+        <v>0.08252346957379446</v>
+      </c>
+      <c r="D33">
+        <v>0.07673565618008121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.005873185001803297</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003624306655558763</v>
+      </c>
+      <c r="C34">
+        <v>0.05655419430583027</v>
+      </c>
+      <c r="D34">
+        <v>0.04515439830132291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.004093219064740034</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005018827292975245</v>
+      </c>
+      <c r="C35">
+        <v>0.04014999884390687</v>
+      </c>
+      <c r="D35">
+        <v>0.01294851465077797</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004787683840499445</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.00139608256734647</v>
+      </c>
+      <c r="C36">
+        <v>0.02449712729111146</v>
+      </c>
+      <c r="D36">
+        <v>0.02500468296566361</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.001977614108617929</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009552923286356835</v>
+      </c>
+      <c r="C38">
+        <v>0.03391003632454838</v>
+      </c>
+      <c r="D38">
+        <v>0.03142906050160916</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01448427463068955</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001020131417286388</v>
+      </c>
+      <c r="C39">
+        <v>0.1150364656299837</v>
+      </c>
+      <c r="D39">
+        <v>0.0821577848222577</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008726974720947134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002327966379753008</v>
+      </c>
+      <c r="C40">
+        <v>0.08544800524296507</v>
+      </c>
+      <c r="D40">
+        <v>0.02757735581677289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0002180634149457945</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007366225806870656</v>
+      </c>
+      <c r="C41">
+        <v>0.03957561746407574</v>
+      </c>
+      <c r="D41">
+        <v>0.03887237387363449</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002004552443409613</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003182485853594464</v>
+      </c>
+      <c r="C43">
+        <v>0.05023622522942926</v>
+      </c>
+      <c r="D43">
+        <v>0.03152901885398356</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.005686580518038923</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003583875861851861</v>
+      </c>
+      <c r="C44">
+        <v>0.1067444103342219</v>
+      </c>
+      <c r="D44">
+        <v>0.08426114930883719</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.002979260212890025</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002472664443955458</v>
+      </c>
+      <c r="C46">
+        <v>0.03437336324162944</v>
+      </c>
+      <c r="D46">
+        <v>0.03440820960585122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.001926520091235476</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002887326372271715</v>
+      </c>
+      <c r="C47">
+        <v>0.03829518636989005</v>
+      </c>
+      <c r="D47">
+        <v>0.03052327227564971</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003827575677794669</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006544362053609629</v>
+      </c>
+      <c r="C48">
+        <v>0.03021231707902974</v>
+      </c>
+      <c r="D48">
+        <v>0.03256028173370133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01513519169553119</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01408671557227475</v>
+      </c>
+      <c r="C49">
+        <v>0.1699728841112747</v>
+      </c>
+      <c r="D49">
+        <v>0.03283538246251418</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0004808496804175622</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003873471190163894</v>
+      </c>
+      <c r="C50">
+        <v>0.04110923082445158</v>
+      </c>
+      <c r="D50">
+        <v>0.04036875531915333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.00210436639110202</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.003918280045072731</v>
+      </c>
+      <c r="C51">
+        <v>0.02071143472182582</v>
+      </c>
+      <c r="D51">
+        <v>0.03247164401230299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0002181934945001557</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02039862486952789</v>
+      </c>
+      <c r="C53">
+        <v>0.1655135966402144</v>
+      </c>
+      <c r="D53">
+        <v>0.05250114855546276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.0006795279823126293</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008637215659355792</v>
+      </c>
+      <c r="C54">
+        <v>0.05496140257760045</v>
+      </c>
+      <c r="D54">
+        <v>0.04097594155064233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.005872369408477014</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009652646914257067</v>
+      </c>
+      <c r="C55">
+        <v>0.1052399367970274</v>
+      </c>
+      <c r="D55">
+        <v>0.05374502914735393</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002219300063788899</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01973220622593485</v>
+      </c>
+      <c r="C56">
+        <v>0.1713533336530918</v>
+      </c>
+      <c r="D56">
+        <v>0.05147026608207926</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.008218856303660496</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01977557267358987</v>
+      </c>
+      <c r="C58">
+        <v>0.1004793700547677</v>
+      </c>
+      <c r="D58">
+        <v>0.07868578823266374</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.007747246126613679</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009185774949058713</v>
+      </c>
+      <c r="C59">
+        <v>0.1681571232068769</v>
+      </c>
+      <c r="D59">
+        <v>-0.2746420873931331</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.00708714308499812</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02366364650024682</v>
+      </c>
+      <c r="C60">
+        <v>0.2209741412510915</v>
+      </c>
+      <c r="D60">
+        <v>0.02781998713940547</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01700586663365208</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002067738069574768</v>
+      </c>
+      <c r="C61">
+        <v>0.09546053696312022</v>
+      </c>
+      <c r="D61">
+        <v>0.06181174754279842</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1872777343372502</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1443514724262653</v>
+      </c>
+      <c r="C62">
+        <v>0.07139389477775059</v>
+      </c>
+      <c r="D62">
+        <v>0.05098967930324396</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.002778568577717706</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006843462019414348</v>
+      </c>
+      <c r="C63">
+        <v>0.05836967778623189</v>
+      </c>
+      <c r="D63">
+        <v>0.02717153593910426</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.006488110831012459</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01515074974610746</v>
+      </c>
+      <c r="C64">
+        <v>0.09951552936965971</v>
+      </c>
+      <c r="D64">
+        <v>0.06684794727141859</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.0004158312262193331</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01747484312943963</v>
+      </c>
+      <c r="C65">
+        <v>0.1119887329318946</v>
+      </c>
+      <c r="D65">
+        <v>0.02975161928726434</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.01117133339901099</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01226722480622238</v>
+      </c>
+      <c r="C66">
+        <v>0.1528835861488612</v>
+      </c>
+      <c r="D66">
+        <v>0.1192631899579479</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002188351921851234</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01559238288854454</v>
+      </c>
+      <c r="C67">
+        <v>0.06286159208615044</v>
+      </c>
+      <c r="D67">
+        <v>0.04229830161144976</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.008821098117072766</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.00170838871173092</v>
+      </c>
+      <c r="C68">
+        <v>0.1122421354806089</v>
+      </c>
+      <c r="D68">
+        <v>-0.2629855091803709</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.003345395777196583</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005571698244319982</v>
+      </c>
+      <c r="C69">
+        <v>0.04591120587659199</v>
+      </c>
+      <c r="D69">
+        <v>0.04757642223539529</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001601804310217333</v>
+      </c>
+      <c r="C70">
+        <v>0.002042899047728633</v>
+      </c>
+      <c r="D70">
+        <v>0.002365853680753744</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.004032504322312224</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006316775664745725</v>
+      </c>
+      <c r="C71">
+        <v>0.1145699391404378</v>
+      </c>
+      <c r="D71">
+        <v>-0.2812249054735379</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.009035722409581349</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01544777425231952</v>
+      </c>
+      <c r="C72">
+        <v>0.1499430560631027</v>
+      </c>
+      <c r="D72">
+        <v>0.02687421119165065</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01425682611272325</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03107223997793756</v>
+      </c>
+      <c r="C73">
+        <v>0.2831909370802628</v>
+      </c>
+      <c r="D73">
+        <v>0.0503288885205671</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.006027535160743785</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001814919911608489</v>
+      </c>
+      <c r="C74">
+        <v>0.1027410007948742</v>
+      </c>
+      <c r="D74">
+        <v>0.04365192299974311</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.007640785839413374</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01091150457794796</v>
+      </c>
+      <c r="C75">
+        <v>0.1307533626964572</v>
+      </c>
+      <c r="D75">
+        <v>0.04084504865733556</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01120850259118138</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02156688357594354</v>
+      </c>
+      <c r="C76">
+        <v>0.1444831330776154</v>
+      </c>
+      <c r="D76">
+        <v>0.07257276625043237</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001901445709691893</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02324039832058439</v>
+      </c>
+      <c r="C77">
+        <v>0.1292890753427421</v>
+      </c>
+      <c r="D77">
+        <v>0.06345836366934933</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0007128697300107776</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.0141594137296555</v>
+      </c>
+      <c r="C78">
+        <v>0.09030233945545886</v>
+      </c>
+      <c r="D78">
+        <v>0.06772046549775754</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02620600128847219</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03696768055465378</v>
+      </c>
+      <c r="C79">
+        <v>0.1560084825197771</v>
+      </c>
+      <c r="D79">
+        <v>0.03654170255318707</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.005029008336922093</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01077802526488678</v>
+      </c>
+      <c r="C80">
+        <v>0.04182196977011749</v>
+      </c>
+      <c r="D80">
+        <v>0.03551893434475131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0001616875810672319</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01466880670392831</v>
+      </c>
+      <c r="C81">
+        <v>0.1208061292472867</v>
+      </c>
+      <c r="D81">
+        <v>0.06015269600135489</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006709918065588596</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01963747943762562</v>
+      </c>
+      <c r="C82">
+        <v>0.1405206724790966</v>
+      </c>
+      <c r="D82">
+        <v>0.04806494955296677</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.007101647193593527</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009755162503579376</v>
+      </c>
+      <c r="C83">
+        <v>0.05724784736011451</v>
+      </c>
+      <c r="D83">
+        <v>0.04955855207937787</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01280609425893486</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01205693238147863</v>
+      </c>
+      <c r="C84">
+        <v>0.03010370528404903</v>
+      </c>
+      <c r="D84">
+        <v>0.0009606106751841144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01489644456540079</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02831136155684837</v>
+      </c>
+      <c r="C85">
+        <v>0.1289248576530706</v>
+      </c>
+      <c r="D85">
+        <v>0.0527704470122286</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.004431601030359248</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005226985669017467</v>
+      </c>
+      <c r="C86">
+        <v>0.04670471670869459</v>
+      </c>
+      <c r="D86">
+        <v>0.02166180250832596</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.007928644966825164</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.009942766250458786</v>
+      </c>
+      <c r="C87">
+        <v>0.1266890960146448</v>
+      </c>
+      <c r="D87">
+        <v>0.08194560953209333</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01471089830805832</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.00295227625835737</v>
+      </c>
+      <c r="C88">
+        <v>0.07003017725897583</v>
+      </c>
+      <c r="D88">
+        <v>0.02167455309083666</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01574728134258757</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.00131563534193492</v>
+      </c>
+      <c r="C89">
+        <v>0.1639847579943761</v>
+      </c>
+      <c r="D89">
+        <v>-0.3434941316702724</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002470526957844577</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007698270033644108</v>
+      </c>
+      <c r="C90">
+        <v>0.147308986105548</v>
+      </c>
+      <c r="D90">
+        <v>-0.3162632182043993</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0005905479518458568</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01025590507837797</v>
+      </c>
+      <c r="C91">
+        <v>0.1022404405780892</v>
+      </c>
+      <c r="D91">
+        <v>0.02407298640993781</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.0163678637327469</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0008549564870146673</v>
+      </c>
+      <c r="C92">
+        <v>0.1542308009004382</v>
+      </c>
+      <c r="D92">
+        <v>-0.3261324708879361</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001701282922209439</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005300699311310722</v>
+      </c>
+      <c r="C93">
+        <v>0.127364705517863</v>
+      </c>
+      <c r="D93">
+        <v>-0.3098828243760276</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.001663228079624071</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02202834881515439</v>
+      </c>
+      <c r="C94">
+        <v>0.1557531371952576</v>
+      </c>
+      <c r="D94">
+        <v>0.03600457600592272</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.007541313116932216</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01624047678113676</v>
+      </c>
+      <c r="C95">
+        <v>0.1220429516061644</v>
+      </c>
+      <c r="D95">
+        <v>0.06919489277613933</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.004089114468129861</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.0333321078992994</v>
+      </c>
+      <c r="C97">
+        <v>0.1750109111399528</v>
+      </c>
+      <c r="D97">
+        <v>0.0436662971033985</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.007978018923264997</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03608424170679243</v>
+      </c>
+      <c r="C98">
+        <v>0.2585025819606911</v>
+      </c>
+      <c r="D98">
+        <v>0.04497908025790944</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.979723300557213</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9825395740571876</v>
+      </c>
+      <c r="C99">
+        <v>-0.1097352963093255</v>
+      </c>
+      <c r="D99">
+        <v>-0.0330921442320191</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001892134516674798</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003416149057757382</v>
+      </c>
+      <c r="C101">
+        <v>0.04935940775836858</v>
+      </c>
+      <c r="D101">
+        <v>0.01937378901644249</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
